--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/142.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/142.xlsx
@@ -479,13 +479,13 @@
         <v>-4.416694403041339</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.842021110186614</v>
+        <v>-6.125764401721757</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.627359667556546</v>
+        <v>-3.550054690976887</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.03192679373271</v>
+        <v>-11.04606091258496</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.284307276146957</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.672081585058301</v>
+        <v>-6.916629708541387</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.700914775869281</v>
+        <v>-3.658615088456733</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.85985330804477</v>
+        <v>-10.89214030939388</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.104891642880357</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.023317616391205</v>
+        <v>-7.253198719273546</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.769585766321969</v>
+        <v>-3.716324925513797</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.33300903905915</v>
+        <v>-10.35840254072591</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.882974449093938</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.708971495434825</v>
+        <v>-7.89935431183936</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.45553552121882</v>
+        <v>-3.397869685223558</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.997168490350161</v>
+        <v>-10.00012145049778</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.609862090626098</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.448169777684898</v>
+        <v>-8.629199923953024</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.383275999725817</v>
+        <v>-3.324304798897089</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.649638326222378</v>
+        <v>-9.679040813520006</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.278479465115894</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.080944158455965</v>
+        <v>-9.224294728800778</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.271078181136986</v>
+        <v>-3.193548310241449</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.065710013058659</v>
+        <v>-9.11077687835788</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.882441547938118</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.754996424204396</v>
+        <v>-9.9053822754307</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.132729064817027</v>
+        <v>-3.049664838148142</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.408529710007951</v>
+        <v>-8.454804160003301</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.415575803878716</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.44405305202739</v>
+        <v>-10.5892663339885</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.014693772029099</v>
+        <v>-2.945528991882854</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.849105099261208</v>
+        <v>-7.890690991671186</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.88364782567811</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.65158161551419</v>
+        <v>-10.76698662260772</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.821758894040034</v>
+        <v>-2.725939248455369</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.485294542266599</v>
+        <v>-7.490579558689734</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.29647106823334</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.36569440353013</v>
+        <v>-11.52126749104223</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.865266166148711</v>
+        <v>-2.781033466838633</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.839916301792624</v>
+        <v>-6.808812440105312</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.6764678125077488</v>
       </c>
       <c r="E12" t="n">
-        <v>-11.94168296954198</v>
+        <v>-12.11023148127887</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.459840382702922</v>
+        <v>-2.35924417740928</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.272561721907746</v>
+        <v>-6.256227549965383</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.04250307505434154</v>
       </c>
       <c r="E13" t="n">
-        <v>-12.90020698884872</v>
+        <v>-13.06683900989378</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.170196059879413</v>
+        <v>-2.049584260472621</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.522460954344453</v>
+        <v>-5.513294066468987</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5872532043518386</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.37563846162186</v>
+        <v>-13.54672925692955</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.110633289219788</v>
+        <v>-1.986212953463669</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.935706795211655</v>
+        <v>-4.929272862174795</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.201872266223437</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.12427252712508</v>
+        <v>-14.32002347306949</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.949868076415024</v>
+        <v>-1.842129032088819</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.196826298407932</v>
+        <v>-4.205049607958083</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.797529753825334</v>
       </c>
       <c r="E16" t="n">
-        <v>-14.88335928930977</v>
+        <v>-15.10630289144795</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.588448243778336</v>
+        <v>-1.452362737637758</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.011576939213658</v>
+        <v>-4.036545097282993</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.366172204924278</v>
       </c>
       <c r="E17" t="n">
-        <v>-15.79270478854221</v>
+        <v>-16.01915869761084</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.205487446886021</v>
+        <v>-1.084181408504127</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.584751972711382</v>
+        <v>-3.657969739550301</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.900189604918262</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.447567702338</v>
+        <v>-16.65284243365916</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.036195806105357</v>
+        <v>-0.9330524282340525</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.387842332139516</v>
+        <v>-3.46360238254923</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.380958851241207</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.21258971885912</v>
+        <v>-17.41969782775537</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5610918967922964</v>
+        <v>-0.4484051775167738</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.830930670922367</v>
+        <v>-2.943896063589304</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.79096771842747</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.15167993586988</v>
+        <v>-18.35142031141769</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.303309231720472</v>
+        <v>-0.1950030625977051</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.894771322590542</v>
+        <v>-3.040419726162806</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>4.108752513067031</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.34423347132332</v>
+        <v>-18.54890685479985</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09845468558199773</v>
+        <v>0.1875030566559866</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.978114222650841</v>
+        <v>-3.105062174957155</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>4.321046117865244</v>
       </c>
       <c r="E22" t="n">
-        <v>-18.8453273411409</v>
+        <v>-19.04155740975827</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4869889503025956</v>
+        <v>0.5991085447815561</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.941520006251983</v>
+        <v>-3.092404536178712</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.421522750837842</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.37442544229217</v>
+        <v>-19.58085886824079</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5564226258265217</v>
+        <v>0.6549947822772608</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.840317564106844</v>
+        <v>-2.997142237376874</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.414975967765038</v>
       </c>
       <c r="E24" t="n">
-        <v>-19.59371206729391</v>
+        <v>-19.82462475062517</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5967275984373686</v>
+        <v>0.6838105887508575</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.281814440216731</v>
+        <v>-3.426108588886859</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.317021633059155</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.17246781119243</v>
+        <v>-20.39281535068429</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7594044129270965</v>
+        <v>0.85996639517267</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.451785652951896</v>
+        <v>-3.577252236177535</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.148053134445663</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.13622071428113</v>
+        <v>-20.3417887860143</v>
       </c>
       <c r="F26" t="n">
-        <v>0.781277829649674</v>
+        <v>0.8661118768043822</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.640921772605368</v>
+        <v>-3.769527098239566</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.933663389832557</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.32849557634316</v>
+        <v>-20.55044671008736</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6261447527555958</v>
+        <v>0.7087151897309223</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.967233646930739</v>
+        <v>-4.067204059345416</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.694002696408533</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.52508254246181</v>
+        <v>-20.74654477551932</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7193976697351314</v>
+        <v>0.8158822202536979</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.319115027170076</v>
+        <v>-4.402604597436382</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.445807139341531</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.33829314610445</v>
+        <v>-20.58373106883732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4926161972064147</v>
+        <v>0.5771715709697087</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.51794604744064</v>
+        <v>-4.597910643755901</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.198336329553796</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.0234606599026</v>
+        <v>-20.26980304890584</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5511376094033866</v>
+        <v>0.6286919253332585</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.998100300847224</v>
+        <v>-5.048163731164433</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.952702285057105</v>
       </c>
       <c r="E31" t="n">
-        <v>-19.87884872578612</v>
+        <v>-20.14772943644584</v>
       </c>
       <c r="F31" t="n">
-        <v>0.507889454658657</v>
+        <v>0.5717985524229692</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.043406727482925</v>
+        <v>-5.116028035484079</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.707388435014184</v>
       </c>
       <c r="E32" t="n">
-        <v>-19.71270071642088</v>
+        <v>-19.95442788294176</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2316899007191639</v>
+        <v>0.3169052904094914</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.393337393982362</v>
+        <v>-5.4557944567072</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.454926667403043</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.32062681072864</v>
+        <v>-19.57224932714815</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1275198314058071</v>
+        <v>0.1850438862019284</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.555070630146775</v>
+        <v>-5.618657053457871</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.192768815855985</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.01557722726748</v>
+        <v>-19.2463774634408</v>
       </c>
       <c r="F34" t="n">
-        <v>0.007792942241926937</v>
+        <v>0.07852709359245241</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.74230003712215</v>
+        <v>-5.792563916720903</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.912420384075939</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.5040355497753</v>
+        <v>-18.7632995839278</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1008016782859879</v>
+        <v>-0.03589522312082504</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.575594680974084</v>
+        <v>-5.642300290666272</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.612073735479959</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.00642754185384</v>
+        <v>-18.26485555583209</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1151704694678509</v>
+        <v>-0.04357096390188151</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.70409244845721</v>
+        <v>-5.729564174233837</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.288536797777891</v>
       </c>
       <c r="E37" t="n">
-        <v>-17.66681756885045</v>
+        <v>-17.92143215747252</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.02020151107802806</v>
+        <v>0.06969265818393709</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.377389453582485</v>
+        <v>-5.407168394408864</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9441627169272492</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.12277377370702</v>
+        <v>-17.38152935114537</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1295734836977823</v>
+        <v>-0.04856752891986858</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.337441378472923</v>
+        <v>-5.354748462781802</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5845458925010153</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.48205964578409</v>
+        <v>-16.7252437363513</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2361049433278591</v>
+        <v>-0.1597337670597807</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.303687675063743</v>
+        <v>-5.317049330831021</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.2171948078584151</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.13219742538079</v>
+        <v>-16.36688442201331</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1839979081402796</v>
+        <v>-0.09627445792722465</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.403379414087006</v>
+        <v>-5.410439140002831</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.1451947102935276</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.41443254923527</v>
+        <v>-15.678316694877</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2772508251198153</v>
+        <v>-0.2035930476628747</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.594740031864923</v>
+        <v>-5.591518176339626</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.4918380046647421</v>
       </c>
       <c r="E42" t="n">
-        <v>-14.80569741522882</v>
+        <v>-15.07383499684477</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.3157908662517058</v>
+        <v>-0.2356160426411676</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.788090475437675</v>
+        <v>-5.808022956434088</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.809566159921566</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.34957751957999</v>
+        <v>-14.61914269120108</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4612241535218248</v>
+        <v>-0.3593910294908533</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.538394227723728</v>
+        <v>-5.558092036390529</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.091698923722993</v>
       </c>
       <c r="E44" t="n">
-        <v>-13.76956530091667</v>
+        <v>-14.02101670209584</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.4536853049330419</v>
+        <v>-0.3800715285379035</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.682605263277119</v>
+        <v>-5.709460577997082</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.332381252181287</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.17059840263032</v>
+        <v>-13.44240273939646</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5266488434148806</v>
+        <v>-0.4845300492564084</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.902341676910611</v>
+        <v>-5.900664747555259</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.532215626083021</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.22092348575269</v>
+        <v>-12.52886736127906</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.7058505011147811</v>
+        <v>-0.6713292236274947</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.04232372152412</v>
+        <v>-6.100331788000066</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.692554354495718</v>
       </c>
       <c r="E47" t="n">
-        <v>-11.94681153774537</v>
+        <v>-12.24256711915252</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.7781931357245216</v>
+        <v>-0.7285550490047341</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.362010991544821</v>
+        <v>-6.401123046480141</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.8168087779583</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.20999420183949</v>
+        <v>-11.50942142740369</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9398481477790643</v>
+        <v>-0.89578352888756</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.519221896357339</v>
+        <v>-6.571920501375815</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.909564438076367</v>
       </c>
       <c r="E49" t="n">
-        <v>-10.73329158728094</v>
+        <v>-11.03716780909404</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.01636599425315</v>
+        <v>-0.9669576908561077</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.448971756686638</v>
+        <v>-6.47565595616626</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.973735406942122</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.18407033386545</v>
+        <v>-10.49990017746816</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.26433153353621</v>
+        <v>-1.210361786732335</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.768654137700472</v>
+        <v>-6.770130617774281</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.014177232207635</v>
       </c>
       <c r="E51" t="n">
-        <v>-9.724322795121372</v>
+        <v>-10.02697187621087</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.246877779021323</v>
+        <v>-1.193631605233752</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.010723534702032</v>
+        <v>-7.005262514031688</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.03368068971651</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.142618980082098</v>
+        <v>-9.399819853336759</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.349766928535548</v>
+        <v>-1.300813302777129</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.035589023627161</v>
+        <v>-7.039954906759316</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.037233619212607</v>
       </c>
       <c r="E53" t="n">
-        <v>-8.665065678328713</v>
+        <v>-8.914077465081292</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.237613111008519</v>
+        <v>-1.190140854330775</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.278954007448454</v>
+        <v>-7.251947133515616</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.028703363842726</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.965145677247435</v>
+        <v>-8.208931115659281</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.330670467713378</v>
+        <v>-1.268917421977376</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.164844587174659</v>
+        <v>-7.130059303316559</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.011505304903302</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.354278936247012</v>
+        <v>-7.619292442475004</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.547277916952045</v>
+        <v>-1.483236816002326</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.335896270427412</v>
+        <v>-7.288311566591729</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.988822081070666</v>
       </c>
       <c r="E56" t="n">
-        <v>-6.969416315683468</v>
+        <v>-7.20733005684815</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.579212909806734</v>
+        <v>-1.506425375572104</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.271943171601298</v>
+        <v>-7.211681272959704</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.961255944502804</v>
       </c>
       <c r="E57" t="n">
-        <v>-6.790879562917468</v>
+        <v>-7.043406545607358</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.582478766393833</v>
+        <v>-1.498441627358432</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.126138319809293</v>
+        <v>-7.075478430654321</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.931180189965814</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.094963658460193</v>
+        <v>-6.31550186921986</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.677501503859192</v>
+        <v>-1.600377420533609</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.268848430254541</v>
+        <v>-7.239543723094252</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.897185685063987</v>
       </c>
       <c r="E59" t="n">
-        <v>-5.787415792490042</v>
+        <v>-6.010085610243682</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.662003352091071</v>
+        <v>-1.580400938475394</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.179433383665534</v>
+        <v>-7.139832428043522</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.860352820311507</v>
       </c>
       <c r="E60" t="n">
-        <v>-5.663024790775125</v>
+        <v>-5.866128803047372</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.795106564042831</v>
+        <v>-1.714921962418559</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.970403895070585</v>
+        <v>-6.914253651204066</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.817898592301837</v>
       </c>
       <c r="E61" t="n">
-        <v>-5.427115542425877</v>
+        <v>-5.616999680129987</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.928341779179997</v>
+        <v>-1.869238575165862</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.899317735225641</v>
+        <v>-6.866346272915167</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.769133788411402</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.257740788528475</v>
+        <v>-5.446451564584526</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.99345357263357</v>
+        <v>-1.920710039460743</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.093440641883366</v>
+        <v>-7.050422270461381</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.711807615060477</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.855879091088668</v>
+        <v>-5.039563968085529</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.138955305999826</v>
+        <v>-2.084618883680933</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.793436513508864</v>
+        <v>-6.755698269503148</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.644856248850795</v>
       </c>
       <c r="E64" t="n">
-        <v>-4.781688411883233</v>
+        <v>-4.941236261978136</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.243545829903737</v>
+        <v>-2.179842070427836</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.684969007159489</v>
+        <v>-6.628207637434606</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.568554861861948</v>
       </c>
       <c r="E65" t="n">
-        <v>-4.560529297251469</v>
+        <v>-4.73055428906217</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.018739516149255</v>
+        <v>-1.968441413502433</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.785350096150987</v>
+        <v>-6.752300409730641</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.483650112022363</v>
       </c>
       <c r="E66" t="n">
-        <v>-4.724604367705135</v>
+        <v>-4.875303115370921</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.185136864864705</v>
+        <v>-2.115312068791425</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.752329743771843</v>
+        <v>-6.708925140807373</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.394322077013578</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.493447234030529</v>
+        <v>-4.630774547915303</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.225148497063536</v>
+        <v>-2.13764994116636</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.608998729454497</v>
+        <v>-6.600125181991047</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.303723291633146</v>
       </c>
       <c r="E68" t="n">
-        <v>-4.577313257825588</v>
+        <v>-4.700271780528499</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.187522700215759</v>
+        <v>-2.120005515383664</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.535233393846485</v>
+        <v>-6.519549459817422</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.218509814637277</v>
       </c>
       <c r="E69" t="n">
-        <v>-4.783321340176784</v>
+        <v>-4.897186310107232</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.297261348350532</v>
+        <v>-2.219291466836972</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.296366296342755</v>
+        <v>-6.324580754971721</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.14194703591372</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.541471948484235</v>
+        <v>-4.660768605043827</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.153001422728473</v>
+        <v>-2.059464943350656</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.234544804510615</v>
+        <v>-6.240338277647909</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.078560217131339</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.088385590658542</v>
+        <v>-5.210019192500519</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.254418981175756</v>
+        <v>-2.169086255320623</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.138304704335394</v>
+        <v>-6.144239958671829</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.028218354783806</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.111637707317589</v>
+        <v>-5.203096358776968</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.164588369003061</v>
+        <v>-2.081553476375378</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.69057434447019</v>
+        <v>-5.709123236523266</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9885242060318346</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.420681609389018</v>
+        <v>-5.513201175338516</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.359659742992967</v>
+        <v>-2.273094987407371</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.738359497587417</v>
+        <v>-5.767160637040413</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9535700503231936</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.62663102365781</v>
+        <v>-5.715474056443388</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.201031026189045</v>
+        <v>-2.128287493016217</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.263275144301824</v>
+        <v>-5.292560295434644</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9151573945382524</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.090177320737483</v>
+        <v>-6.163189749287991</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.334085348072136</v>
+        <v>-2.249515307288241</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.085936198218218</v>
+        <v>-5.143049576437519</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8656455206894982</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.294640476918733</v>
+        <v>-6.36611775731303</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.367623935179172</v>
+        <v>-2.292836797135974</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.623729489020079</v>
+        <v>-4.65900367356487</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7969618875835744</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.809516457094148</v>
+        <v>-6.862977747183862</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.359429959670222</v>
+        <v>-2.274312350117233</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.131406497521743</v>
+        <v>-4.141277402386044</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7050074432240401</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.555290453580221</v>
+        <v>-7.606013899824463</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.382105173518974</v>
+        <v>-2.303025487446625</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.806072424569755</v>
+        <v>-3.796543750186138</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5870178659907753</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.22332435187548</v>
+        <v>-8.261189710059735</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.341971316148469</v>
+        <v>-2.245071200046215</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.34297102711497</v>
+        <v>-3.325028371913393</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.44428680401565</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.828759406246759</v>
+        <v>-8.866262977922863</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.458417681704649</v>
+        <v>-2.355484531128622</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.87319124627998</v>
+        <v>-2.868375574516069</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2793448069768052</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.478835982319838</v>
+        <v>-9.525917118448229</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.378154855970507</v>
+        <v>-2.305954002559907</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.488499740956777</v>
+        <v>-2.500125799286301</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.09541399338989573</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.34172124929599</v>
+        <v>-10.38260312471714</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.532109682209659</v>
+        <v>-2.454936708815406</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.410231630024336</v>
+        <v>-2.406652876997754</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1022962491424836</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.33898575901617</v>
+        <v>-11.38062054149482</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.46367825309345</v>
+        <v>-2.371735589954247</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.053930587577308</v>
+        <v>-2.064823294876795</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3128149609804824</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.27308918902267</v>
+        <v>-12.31784315788241</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.582642457186092</v>
+        <v>-2.508055768424437</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.598905829466667</v>
+        <v>-1.628826551492186</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.5341252003590057</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.62817033331862</v>
+        <v>-13.63920971082412</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.532530136800213</v>
+        <v>-2.441804836370872</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.545332092219013</v>
+        <v>-1.56837887058965</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.7693391638192077</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.7835502141217</v>
+        <v>-14.80282756819794</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.583488255374068</v>
+        <v>-2.498615096164424</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.579164019738065</v>
+        <v>-1.627926974228674</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.018177362051683</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.25203676170261</v>
+        <v>-16.27422307486466</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.490763351136159</v>
+        <v>-2.395383716169515</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.286434733581532</v>
+        <v>-1.325365895262776</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.281384008788729</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.66415306010799</v>
+        <v>-17.69820988194292</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.545603341162344</v>
+        <v>-2.442181289899625</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.615054219148087</v>
+        <v>-1.633177767603741</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.55461235042362</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.16960049960277</v>
+        <v>-19.20788631237758</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.569026573061733</v>
+        <v>-2.46098441030978</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.276250932277748</v>
+        <v>-1.292873555625259</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.831715199462008</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.95056303207568</v>
+        <v>-20.98733814172861</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.354844071229056</v>
+        <v>-2.240646648831657</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.464907929258262</v>
+        <v>-1.510859704800396</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.102840342169701</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.46922545713174</v>
+        <v>-22.49772836716585</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.417350024022564</v>
+        <v>-2.281406299081127</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.641860643799382</v>
+        <v>-1.703877695906198</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.355312575837439</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.34917571163907</v>
+        <v>-24.38586770817527</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.237463905361295</v>
+        <v>-2.123154035805957</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.892666696072119</v>
+        <v>-1.962432824062995</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.575358476551826</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.15286723703627</v>
+        <v>-26.18181993570214</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.184823968425222</v>
+        <v>-2.070298982567739</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.314612433721213</v>
+        <v>-2.354941851366394</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.746789240846688</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.21539256398168</v>
+        <v>-28.22446656072668</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.400869181874194</v>
+        <v>-2.270254474417694</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.496346596978176</v>
+        <v>-2.547485608806106</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.858026076143116</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.38310487366877</v>
+        <v>-30.35289814474153</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.37814996696364</v>
+        <v>-2.269306007085512</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.791080375950143</v>
+        <v>-2.861149622366769</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.89101887977418</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.52771907041311</v>
+        <v>-32.51570433603766</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.522062773098148</v>
+        <v>-2.38944846183308</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.118663392060912</v>
+        <v>-3.173361600887957</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.8437073995492</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.69878279430746</v>
+        <v>-34.70752922759237</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.646913341458555</v>
+        <v>-2.531845675838845</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.41621812799509</v>
+        <v>-3.464673075053084</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.696562511920026</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.71183137175969</v>
+        <v>-36.73238475662821</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.73935957230505</v>
+        <v>-2.623177213119683</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.70573533664006</v>
+        <v>-3.728004762918857</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.469290876410422</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.21614935973044</v>
+        <v>-39.22251973567803</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.839520655987537</v>
+        <v>-2.727968186305138</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.014388118162134</v>
+        <v>-4.049144067979032</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>2.134973613119838</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.32001123973561</v>
+        <v>-41.31191748886744</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.047983019785923</v>
+        <v>-2.969054892926448</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.573915398053082</v>
+        <v>-4.602188524764451</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.75446547665077</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.34874375121691</v>
+        <v>-43.32699500416944</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.127962283121785</v>
+        <v>-3.062102471617573</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.948735998511983</v>
+        <v>-4.986215125153754</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.255619307287253</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.73836074908296</v>
+        <v>-45.7102636266188</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.451682983807691</v>
+        <v>-3.378959006662331</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.159266412215075</v>
+        <v>-5.182542973908457</v>
       </c>
     </row>
   </sheetData>
